--- a/results/mp/deberta/corona/confidence/84/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.1/avg_0.004_scores.xlsx
@@ -1038,25 +1038,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6869565217391305</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L17">
         <v>158</v>
       </c>
       <c r="M17">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="N17">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1194,25 +1194,25 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5319148936170213</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L23">
         <v>175</v>
       </c>
       <c r="M23">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="10:17">
